--- a/fechamento_2021/fechamento_novembro/PositivoNovembro.xlsx
+++ b/fechamento_2021/fechamento_novembro/PositivoNovembro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d788796\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_novembro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_novembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81498456-8CE4-452E-B9DC-E63FCF40B9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C830056-59A3-44F9-A95F-AB5B8531C00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4BF9ABC-8F33-4A45-9791-62EDDBDFD884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C4BF9ABC-8F33-4A45-9791-62EDDBDFD884}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -1077,34 +1077,34 @@
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>3521105736529</v>
+        <v>3521104459277</v>
       </c>
       <c r="B2" s="2">
-        <v>44521</v>
+        <v>44503</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>27846</v>
+        <v>14977</v>
       </c>
       <c r="E2" s="2">
-        <v>44518</v>
+        <v>44497</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>2102849489</v>
+        <v>2102750480</v>
       </c>
       <c r="H2" s="2">
-        <v>44522</v>
+        <v>44503</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>44521</v>
+        <v>44503</v>
       </c>
       <c r="K2" t="s">
         <v>3</v>
@@ -1134,13 +1134,22 @@
         <v>5</v>
       </c>
       <c r="AN2" s="2">
-        <v>44521</v>
+        <v>44503</v>
       </c>
       <c r="AO2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="BD2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>44565</v>
+      </c>
       <c r="BG2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BH2" t="s">
         <v>6</v>
@@ -1151,34 +1160,25 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3521105927714</v>
+        <v>3521105167562</v>
       </c>
       <c r="B3" s="2">
-        <v>44523</v>
+        <v>44512</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2">
-        <v>22218</v>
+        <v>39375</v>
       </c>
       <c r="E3" s="2">
-        <v>44517</v>
+        <v>44351</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>2102838515</v>
-      </c>
-      <c r="H3" s="2">
-        <v>44524</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2">
-        <v>44523</v>
+        <v>44351</v>
       </c>
       <c r="K3" t="s">
         <v>3</v>
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="AN3" s="2">
-        <v>44523</v>
+        <v>44351</v>
       </c>
       <c r="AO3" s="4" t="s">
         <v>3</v>
@@ -1220,10 +1220,7 @@
         <v>11</v>
       </c>
       <c r="BF3" s="2">
-        <v>44565</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>8</v>
+        <v>44536</v>
       </c>
       <c r="BH3" t="s">
         <v>6</v>
@@ -1234,34 +1231,25 @@
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3521106168163</v>
+        <v>3521104364665</v>
       </c>
       <c r="B4" s="2">
-        <v>44526</v>
+        <v>44501</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2">
-        <v>31839</v>
+        <v>23027</v>
       </c>
       <c r="E4" s="2">
-        <v>44521</v>
+        <v>44343</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2102827810</v>
-      </c>
-      <c r="H4" s="2">
-        <v>44527</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2">
-        <v>44526</v>
+        <v>44348</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -1291,22 +1279,19 @@
         <v>5</v>
       </c>
       <c r="AN4" s="2">
-        <v>44526</v>
+        <v>44348</v>
       </c>
       <c r="AO4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BD4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BE4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BF4" s="2">
-        <v>44554</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>12</v>
+        <v>44529</v>
       </c>
       <c r="BH4" t="s">
         <v>6</v>
@@ -1317,34 +1302,25 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3521105502867</v>
+        <v>3521104365092</v>
       </c>
       <c r="B5" s="2">
-        <v>44517</v>
+        <v>44501</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2">
-        <v>26211</v>
+        <v>36673</v>
       </c>
       <c r="E5" s="2">
-        <v>44511</v>
+        <v>44345</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>2102773993</v>
-      </c>
-      <c r="H5" s="2">
-        <v>44518</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2">
-        <v>44517</v>
+        <v>44348</v>
       </c>
       <c r="K5" t="s">
         <v>3</v>
@@ -1374,13 +1350,19 @@
         <v>5</v>
       </c>
       <c r="AN5" s="2">
-        <v>44517</v>
+        <v>44348</v>
       </c>
       <c r="AO5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BG5" t="s">
-        <v>17</v>
+      <c r="BD5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>44529</v>
       </c>
       <c r="BH5" t="s">
         <v>6</v>
@@ -1391,34 +1373,25 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3521104685963</v>
+        <v>3521105166312</v>
       </c>
       <c r="B6" s="2">
-        <v>44505</v>
+        <v>44512</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2">
-        <v>40672</v>
+        <v>31318</v>
       </c>
       <c r="E6" s="2">
-        <v>44497</v>
+        <v>44345</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>2102768240</v>
-      </c>
-      <c r="H6" s="2">
-        <v>44506</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="J6" s="2">
-        <v>44505</v>
+        <v>44351</v>
       </c>
       <c r="K6" t="s">
         <v>3</v>
@@ -1448,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="AN6" s="2">
-        <v>44505</v>
+        <v>44351</v>
       </c>
       <c r="AO6" s="4" t="s">
         <v>3</v>
@@ -1460,10 +1433,7 @@
         <v>11</v>
       </c>
       <c r="BF6" s="2">
-        <v>44565</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>19</v>
+        <v>44536</v>
       </c>
       <c r="BH6" t="s">
         <v>6</v>
@@ -1474,34 +1444,25 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3521104961340</v>
+        <v>3521104365416</v>
       </c>
       <c r="B7" s="2">
-        <v>44510</v>
+        <v>44501</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2">
-        <v>24096</v>
+        <v>28536</v>
       </c>
       <c r="E7" s="2">
-        <v>44494</v>
+        <v>44345</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>2102768128</v>
-      </c>
-      <c r="H7" s="2">
-        <v>44510</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J7" s="2">
-        <v>44510</v>
+        <v>44348</v>
       </c>
       <c r="K7" t="s">
         <v>3</v>
@@ -1531,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="AN7" s="2">
-        <v>44510</v>
+        <v>44348</v>
       </c>
       <c r="AO7" s="4" t="s">
         <v>3</v>
@@ -1543,10 +1504,7 @@
         <v>11</v>
       </c>
       <c r="BF7" s="2">
-        <v>44572</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>21</v>
+        <v>44529</v>
       </c>
       <c r="BH7" t="s">
         <v>6</v>
@@ -1557,34 +1515,25 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3521104931540</v>
+        <v>3521105184779</v>
       </c>
       <c r="B8" s="2">
-        <v>44509</v>
+        <v>44512</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
-        <v>22216</v>
+        <v>19648</v>
       </c>
       <c r="E8" s="2">
-        <v>44501</v>
+        <v>44352</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <v>2102768125</v>
-      </c>
-      <c r="H8" s="2">
-        <v>44510</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="J8" s="2">
-        <v>44509</v>
+        <v>44352</v>
       </c>
       <c r="K8" t="s">
         <v>3</v>
@@ -1614,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="AN8" s="2">
-        <v>44509</v>
+        <v>44352</v>
       </c>
       <c r="AO8" s="4" t="s">
         <v>3</v>
@@ -1626,10 +1575,7 @@
         <v>11</v>
       </c>
       <c r="BF8" s="2">
-        <v>44565</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>22</v>
+        <v>44532</v>
       </c>
       <c r="BH8" t="s">
         <v>6</v>
@@ -1640,34 +1586,34 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3521104718812</v>
+        <v>3521104931540</v>
       </c>
       <c r="B9" s="2">
-        <v>44506</v>
+        <v>44509</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>27460</v>
+        <v>22216</v>
       </c>
       <c r="E9" s="2">
-        <v>44503</v>
+        <v>44501</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>2102768099</v>
+        <v>2102768125</v>
       </c>
       <c r="H9" s="2">
-        <v>44506</v>
+        <v>44510</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="2">
-        <v>44506</v>
+        <v>44509</v>
       </c>
       <c r="K9" t="s">
         <v>3</v>
@@ -1697,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="AN9" s="2">
-        <v>44506</v>
+        <v>44509</v>
       </c>
       <c r="AO9" s="4" t="s">
         <v>3</v>
@@ -1712,7 +1658,7 @@
         <v>44565</v>
       </c>
       <c r="BG9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BH9" t="s">
         <v>6</v>
@@ -1723,34 +1669,25 @@
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3521104460341</v>
+        <v>3521104446227</v>
       </c>
       <c r="B10" s="2">
         <v>44503</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2">
-        <v>26649</v>
+        <v>29852</v>
       </c>
       <c r="E10" s="2">
-        <v>44500</v>
+        <v>44347</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10">
-        <v>2102750487</v>
-      </c>
-      <c r="H10" s="2">
-        <v>44503</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2">
-        <v>44503</v>
+        <v>44348</v>
       </c>
       <c r="K10" t="s">
         <v>3</v>
@@ -1780,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="AN10" s="2">
-        <v>44503</v>
+        <v>44348</v>
       </c>
       <c r="AO10" s="4" t="s">
         <v>3</v>
@@ -1788,11 +1725,11 @@
       <c r="BD10" t="s">
         <v>10</v>
       </c>
+      <c r="BE10" t="s">
+        <v>11</v>
+      </c>
       <c r="BF10" s="2">
-        <v>44565</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>26</v>
+        <v>44529</v>
       </c>
       <c r="BH10" t="s">
         <v>6</v>
@@ -1803,34 +1740,34 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3521104459277</v>
+        <v>3521105736529</v>
       </c>
       <c r="B11" s="2">
-        <v>44503</v>
+        <v>44521</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>14977</v>
+        <v>27846</v>
       </c>
       <c r="E11" s="2">
-        <v>44497</v>
+        <v>44518</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2102750480</v>
+        <v>2102849489</v>
       </c>
       <c r="H11" s="2">
-        <v>44503</v>
+        <v>44522</v>
       </c>
       <c r="I11" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="2">
-        <v>44503</v>
+        <v>44521</v>
       </c>
       <c r="K11" t="s">
         <v>3</v>
@@ -1860,22 +1797,13 @@
         <v>5</v>
       </c>
       <c r="AN11" s="2">
-        <v>44503</v>
+        <v>44521</v>
       </c>
       <c r="AO11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BD11" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF11" s="2">
-        <v>44565</v>
-      </c>
       <c r="BG11" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BH11" t="s">
         <v>6</v>
@@ -1886,34 +1814,25 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3521105823329</v>
+        <v>3521105185414</v>
       </c>
       <c r="B12" s="2">
-        <v>44522</v>
+        <v>44512</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2">
-        <v>29769</v>
+        <v>38335</v>
       </c>
       <c r="E12" s="2">
-        <v>44514</v>
+        <v>44350</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12">
-        <v>2102697502</v>
-      </c>
-      <c r="H12" s="2">
-        <v>44519</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2">
-        <v>44518</v>
+        <v>44352</v>
       </c>
       <c r="K12" t="s">
         <v>3</v>
@@ -1943,22 +1862,19 @@
         <v>5</v>
       </c>
       <c r="AN12" s="2">
-        <v>44518</v>
+        <v>44352</v>
       </c>
       <c r="AO12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BD12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BE12" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="BF12" s="2">
-        <v>44536</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>29</v>
+        <v>44532</v>
       </c>
       <c r="BH12" t="s">
         <v>6</v>
@@ -1969,22 +1885,22 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3521105184779</v>
+        <v>3521105186156</v>
       </c>
       <c r="B13" s="2">
         <v>44512</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2">
-        <v>19648</v>
+        <v>34273</v>
       </c>
       <c r="E13" s="2">
-        <v>44352</v>
+        <v>44350</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J13" s="2">
         <v>44352</v>
@@ -2040,22 +1956,22 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>3521104460478</v>
+        <v>3521104448422</v>
       </c>
       <c r="B14" s="2">
         <v>44503</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2">
-        <v>26033</v>
+        <v>30205</v>
       </c>
       <c r="E14" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2">
         <v>44348</v>
@@ -2111,25 +2027,25 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3521104986159</v>
+        <v>3521105186764</v>
       </c>
       <c r="B15" s="2">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2">
-        <v>25076</v>
+        <v>30163</v>
       </c>
       <c r="E15" s="2">
-        <v>44331</v>
+        <v>44352</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="J15" s="2">
-        <v>44331</v>
+        <v>44352</v>
       </c>
       <c r="K15" t="s">
         <v>3</v>
@@ -2159,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="AN15" s="2">
-        <v>44331</v>
+        <v>44352</v>
       </c>
       <c r="AO15" s="4" t="s">
         <v>3</v>
@@ -2171,7 +2087,7 @@
         <v>11</v>
       </c>
       <c r="BF15" s="2">
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="BH15" t="s">
         <v>6</v>
@@ -2182,25 +2098,25 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3521104364665</v>
+        <v>3521105187479</v>
       </c>
       <c r="B16" s="2">
-        <v>44501</v>
+        <v>44512</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2">
-        <v>23027</v>
+        <v>27332</v>
       </c>
       <c r="E16" s="2">
-        <v>44343</v>
+        <v>44348</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J16" s="2">
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="K16" t="s">
         <v>3</v>
@@ -2230,7 +2146,7 @@
         <v>5</v>
       </c>
       <c r="AN16" s="2">
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="AO16" s="4" t="s">
         <v>3</v>
@@ -2242,7 +2158,7 @@
         <v>11</v>
       </c>
       <c r="BF16" s="2">
-        <v>44529</v>
+        <v>44532</v>
       </c>
       <c r="BH16" t="s">
         <v>6</v>
@@ -2253,25 +2169,34 @@
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3521104352107</v>
+        <v>3521104685963</v>
       </c>
       <c r="B17" s="2">
-        <v>44501</v>
+        <v>44505</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
-        <v>19913</v>
+        <v>40672</v>
       </c>
       <c r="E17" s="2">
-        <v>44347</v>
+        <v>44497</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>2102768240</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44506</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
       </c>
       <c r="J17" s="2">
-        <v>44347</v>
+        <v>44505</v>
       </c>
       <c r="K17" t="s">
         <v>3</v>
@@ -2301,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="AN17" s="2">
-        <v>44347</v>
+        <v>44505</v>
       </c>
       <c r="AO17" s="4" t="s">
         <v>3</v>
@@ -2313,7 +2238,10 @@
         <v>11</v>
       </c>
       <c r="BF17" s="2">
-        <v>44529</v>
+        <v>44565</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>19</v>
       </c>
       <c r="BH17" t="s">
         <v>6</v>
@@ -2324,25 +2252,25 @@
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3521105185414</v>
+        <v>3521104460478</v>
       </c>
       <c r="B18" s="2">
-        <v>44512</v>
+        <v>44503</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
-        <v>38335</v>
+        <v>26033</v>
       </c>
       <c r="E18" s="2">
-        <v>44350</v>
+        <v>44345</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J18" s="2">
-        <v>44352</v>
+        <v>44348</v>
       </c>
       <c r="K18" t="s">
         <v>3</v>
@@ -2372,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="AN18" s="2">
-        <v>44352</v>
+        <v>44348</v>
       </c>
       <c r="AO18" s="4" t="s">
         <v>3</v>
@@ -2384,7 +2312,7 @@
         <v>11</v>
       </c>
       <c r="BF18" s="2">
-        <v>44532</v>
+        <v>44529</v>
       </c>
       <c r="BH18" t="s">
         <v>6</v>
@@ -2395,25 +2323,25 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3521105187479</v>
+        <v>3521104462159</v>
       </c>
       <c r="B19" s="2">
-        <v>44512</v>
+        <v>44503</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2">
-        <v>27332</v>
+        <v>39345</v>
       </c>
       <c r="E19" s="2">
+        <v>44344</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="2">
         <v>44348</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="2">
-        <v>44352</v>
       </c>
       <c r="K19" t="s">
         <v>3</v>
@@ -2443,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="AN19" s="2">
-        <v>44352</v>
+        <v>44348</v>
       </c>
       <c r="AO19" s="4" t="s">
         <v>3</v>
@@ -2455,7 +2383,7 @@
         <v>11</v>
       </c>
       <c r="BF19" s="2">
-        <v>44532</v>
+        <v>44529</v>
       </c>
       <c r="BH19" t="s">
         <v>6</v>
@@ -2466,25 +2394,25 @@
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3521104987077</v>
+        <v>3521105644058</v>
       </c>
       <c r="B20" s="2">
-        <v>44510</v>
+        <v>44519</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2">
-        <v>26965</v>
+        <v>32974</v>
       </c>
       <c r="E20" s="2">
-        <v>44326</v>
+        <v>44350</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J20" s="2">
-        <v>44331</v>
+        <v>44354</v>
       </c>
       <c r="K20" t="s">
         <v>3</v>
@@ -2514,19 +2442,19 @@
         <v>5</v>
       </c>
       <c r="AN20" s="2">
-        <v>44331</v>
+        <v>44354</v>
       </c>
       <c r="AO20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BD20" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="BE20" t="s">
         <v>11</v>
       </c>
       <c r="BF20" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="BH20" t="s">
         <v>6</v>
@@ -2537,22 +2465,22 @@
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>3521104462159</v>
+        <v>3521104476430</v>
       </c>
       <c r="B21" s="2">
         <v>44503</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2">
-        <v>39345</v>
+        <v>28543</v>
       </c>
       <c r="E21" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J21" s="2">
         <v>44348</v>
@@ -2608,25 +2536,34 @@
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>3521104784366</v>
+        <v>3521104961340</v>
       </c>
       <c r="B22" s="2">
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>24918</v>
+        <v>24096</v>
       </c>
       <c r="E22" s="2">
-        <v>44497</v>
+        <v>44494</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>2102768128</v>
+      </c>
+      <c r="H22" s="2">
+        <v>44510</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
       </c>
       <c r="J22" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="K22" t="s">
         <v>3</v>
@@ -2656,19 +2593,22 @@
         <v>5</v>
       </c>
       <c r="AN22" s="2">
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="AO22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BD22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BE22" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="BF22" s="2">
-        <v>44503</v>
+        <v>44572</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>21</v>
       </c>
       <c r="BH22" t="s">
         <v>6</v>
@@ -2679,25 +2619,34 @@
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3521104446227</v>
+        <v>3521104718812</v>
       </c>
       <c r="B23" s="2">
+        <v>44506</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2">
+        <v>27460</v>
+      </c>
+      <c r="E23" s="2">
         <v>44503</v>
       </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2">
-        <v>29852</v>
-      </c>
-      <c r="E23" s="2">
-        <v>44347</v>
-      </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>2102768099</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44506</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
       </c>
       <c r="J23" s="2">
-        <v>44348</v>
+        <v>44506</v>
       </c>
       <c r="K23" t="s">
         <v>3</v>
@@ -2727,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="AN23" s="2">
-        <v>44348</v>
+        <v>44506</v>
       </c>
       <c r="AO23" s="4" t="s">
         <v>3</v>
@@ -2739,7 +2688,10 @@
         <v>11</v>
       </c>
       <c r="BF23" s="2">
-        <v>44529</v>
+        <v>44565</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>24</v>
       </c>
       <c r="BH23" t="s">
         <v>6</v>
@@ -2750,25 +2702,25 @@
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>3521104476430</v>
+        <v>3521104352107</v>
       </c>
       <c r="B24" s="2">
-        <v>44503</v>
+        <v>44501</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2">
-        <v>28543</v>
+        <v>19913</v>
       </c>
       <c r="E24" s="2">
-        <v>44345</v>
+        <v>44347</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J24" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="K24" t="s">
         <v>3</v>
@@ -2798,7 +2750,7 @@
         <v>5</v>
       </c>
       <c r="AN24" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="AO24" s="4" t="s">
         <v>3</v>
@@ -2821,25 +2773,34 @@
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>3521104360122</v>
+        <v>3521105502867</v>
       </c>
       <c r="B25" s="2">
-        <v>44501</v>
+        <v>44517</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2">
-        <v>21950</v>
+        <v>26211</v>
       </c>
       <c r="E25" s="2">
-        <v>44346</v>
+        <v>44511</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>2102773993</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44518</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
       </c>
       <c r="J25" s="2">
-        <v>44347</v>
+        <v>44517</v>
       </c>
       <c r="K25" t="s">
         <v>3</v>
@@ -2869,19 +2830,13 @@
         <v>5</v>
       </c>
       <c r="AN25" s="2">
-        <v>44347</v>
+        <v>44517</v>
       </c>
       <c r="AO25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BD25" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF25" s="2">
-        <v>44529</v>
+      <c r="BG25" t="s">
+        <v>17</v>
       </c>
       <c r="BH25" t="s">
         <v>6</v>
@@ -2892,25 +2847,25 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>3521104365092</v>
+        <v>3521104981737</v>
       </c>
       <c r="B26" s="2">
-        <v>44501</v>
+        <v>44510</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2">
-        <v>36673</v>
+        <v>30963</v>
       </c>
       <c r="E26" s="2">
-        <v>44345</v>
+        <v>44326</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J26" s="2">
-        <v>44348</v>
+        <v>44331</v>
       </c>
       <c r="K26" t="s">
         <v>3</v>
@@ -2940,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="AN26" s="2">
-        <v>44348</v>
+        <v>44331</v>
       </c>
       <c r="AO26" s="4" t="s">
         <v>3</v>
@@ -2952,7 +2907,7 @@
         <v>11</v>
       </c>
       <c r="BF26" s="2">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="BH26" t="s">
         <v>6</v>
@@ -2963,25 +2918,34 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>3521105167562</v>
+        <v>3521106168163</v>
       </c>
       <c r="B27" s="2">
-        <v>44512</v>
+        <v>44526</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2">
-        <v>39375</v>
+        <v>31839</v>
       </c>
       <c r="E27" s="2">
-        <v>44351</v>
+        <v>44521</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>2102827810</v>
+      </c>
+      <c r="H27" s="2">
+        <v>44527</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
       </c>
       <c r="J27" s="2">
-        <v>44351</v>
+        <v>44526</v>
       </c>
       <c r="K27" t="s">
         <v>3</v>
@@ -3011,19 +2975,22 @@
         <v>5</v>
       </c>
       <c r="AN27" s="2">
-        <v>44351</v>
+        <v>44526</v>
       </c>
       <c r="AO27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BD27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BE27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BF27" s="2">
-        <v>44536</v>
+        <v>44554</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>12</v>
       </c>
       <c r="BH27" t="s">
         <v>6</v>
@@ -3034,25 +3001,25 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>3521105186156</v>
+        <v>3521104982766</v>
       </c>
       <c r="B28" s="2">
-        <v>44512</v>
+        <v>44510</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2">
-        <v>34273</v>
+        <v>34472</v>
       </c>
       <c r="E28" s="2">
-        <v>44350</v>
+        <v>44329</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J28" s="2">
-        <v>44352</v>
+        <v>44331</v>
       </c>
       <c r="K28" t="s">
         <v>3</v>
@@ -3082,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="AN28" s="2">
-        <v>44352</v>
+        <v>44331</v>
       </c>
       <c r="AO28" s="4" t="s">
         <v>3</v>
@@ -3094,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="BF28" s="2">
-        <v>44532</v>
+        <v>44536</v>
       </c>
       <c r="BH28" t="s">
         <v>6</v>
@@ -3105,25 +3072,25 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>3521105442299</v>
+        <v>3521105966864</v>
       </c>
       <c r="B29" s="2">
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2">
-        <v>39119</v>
+        <v>27011</v>
       </c>
       <c r="E29" s="2">
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J29" s="2">
-        <v>44352</v>
+        <v>44356</v>
       </c>
       <c r="K29" t="s">
         <v>3</v>
@@ -3153,7 +3120,7 @@
         <v>5</v>
       </c>
       <c r="AN29" s="2">
-        <v>44352</v>
+        <v>44356</v>
       </c>
       <c r="AO29" s="4" t="s">
         <v>3</v>
@@ -3165,7 +3132,7 @@
         <v>11</v>
       </c>
       <c r="BF29" s="2">
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="BH29" t="s">
         <v>6</v>
@@ -3176,25 +3143,34 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>3521104448422</v>
+        <v>3521105823329</v>
       </c>
       <c r="B30" s="2">
-        <v>44503</v>
+        <v>44522</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>30205</v>
+        <v>29769</v>
       </c>
       <c r="E30" s="2">
-        <v>44344</v>
+        <v>44514</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>2102697502</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44519</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2</v>
       </c>
       <c r="J30" s="2">
-        <v>44348</v>
+        <v>44518</v>
       </c>
       <c r="K30" t="s">
         <v>3</v>
@@ -3224,19 +3200,22 @@
         <v>5</v>
       </c>
       <c r="AN30" s="2">
-        <v>44348</v>
+        <v>44518</v>
       </c>
       <c r="AO30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BD30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BE30" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="BF30" s="2">
-        <v>44529</v>
+        <v>44536</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>29</v>
       </c>
       <c r="BH30" t="s">
         <v>6</v>
@@ -3247,22 +3226,22 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>3521104981737</v>
+        <v>3521104986159</v>
       </c>
       <c r="B31" s="2">
         <v>44510</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
-        <v>30963</v>
+        <v>25076</v>
       </c>
       <c r="E31" s="2">
-        <v>44326</v>
+        <v>44331</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J31" s="2">
         <v>44331</v>
@@ -3318,25 +3297,25 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>3521104361680</v>
+        <v>3521105442299</v>
       </c>
       <c r="B32" s="2">
-        <v>44501</v>
+        <v>44517</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D32" s="2">
-        <v>26232</v>
+        <v>39119</v>
       </c>
       <c r="E32" s="2">
-        <v>44342</v>
+        <v>44348</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J32" s="2">
-        <v>44347</v>
+        <v>44352</v>
       </c>
       <c r="K32" t="s">
         <v>3</v>
@@ -3366,19 +3345,19 @@
         <v>5</v>
       </c>
       <c r="AN32" s="2">
-        <v>44347</v>
+        <v>44352</v>
       </c>
       <c r="AO32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BD32" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="BE32" t="s">
         <v>11</v>
       </c>
       <c r="BF32" s="2">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="BH32" t="s">
         <v>6</v>
@@ -3389,25 +3368,25 @@
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>3521104365416</v>
+        <v>3521104987077</v>
       </c>
       <c r="B33" s="2">
-        <v>44501</v>
+        <v>44510</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2">
-        <v>28536</v>
+        <v>26965</v>
       </c>
       <c r="E33" s="2">
-        <v>44345</v>
+        <v>44326</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="J33" s="2">
-        <v>44348</v>
+        <v>44331</v>
       </c>
       <c r="K33" t="s">
         <v>3</v>
@@ -3437,7 +3416,7 @@
         <v>5</v>
       </c>
       <c r="AN33" s="2">
-        <v>44348</v>
+        <v>44331</v>
       </c>
       <c r="AO33" s="4" t="s">
         <v>3</v>
@@ -3449,7 +3428,7 @@
         <v>11</v>
       </c>
       <c r="BF33" s="2">
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="BH33" t="s">
         <v>6</v>
@@ -3460,25 +3439,25 @@
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>3521105644058</v>
+        <v>3521104360122</v>
       </c>
       <c r="B34" s="2">
-        <v>44519</v>
+        <v>44501</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2">
-        <v>32974</v>
+        <v>21950</v>
       </c>
       <c r="E34" s="2">
-        <v>44350</v>
+        <v>44346</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J34" s="2">
-        <v>44354</v>
+        <v>44347</v>
       </c>
       <c r="K34" t="s">
         <v>3</v>
@@ -3508,19 +3487,19 @@
         <v>5</v>
       </c>
       <c r="AN34" s="2">
-        <v>44354</v>
+        <v>44347</v>
       </c>
       <c r="AO34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BD34" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="BE34" t="s">
         <v>11</v>
       </c>
       <c r="BF34" s="2">
-        <v>44537</v>
+        <v>44529</v>
       </c>
       <c r="BH34" t="s">
         <v>6</v>
@@ -3531,25 +3510,25 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3521105186764</v>
+        <v>3521104784366</v>
       </c>
       <c r="B35" s="2">
-        <v>44512</v>
+        <v>44508</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2">
-        <v>30163</v>
+        <v>24918</v>
       </c>
       <c r="E35" s="2">
-        <v>44352</v>
+        <v>44497</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="J35" s="2">
-        <v>44352</v>
+        <v>44503</v>
       </c>
       <c r="K35" t="s">
         <v>3</v>
@@ -3579,19 +3558,19 @@
         <v>5</v>
       </c>
       <c r="AN35" s="2">
-        <v>44352</v>
+        <v>44503</v>
       </c>
       <c r="AO35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BD35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BE35" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="BF35" s="2">
-        <v>44532</v>
+        <v>44503</v>
       </c>
       <c r="BH35" t="s">
         <v>6</v>
@@ -3602,25 +3581,34 @@
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3521104982766</v>
+        <v>3521105927714</v>
       </c>
       <c r="B36" s="2">
-        <v>44510</v>
+        <v>44523</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2">
-        <v>34472</v>
+        <v>22218</v>
       </c>
       <c r="E36" s="2">
-        <v>44329</v>
+        <v>44517</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>2102838515</v>
+      </c>
+      <c r="H36" s="2">
+        <v>44524</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2</v>
       </c>
       <c r="J36" s="2">
-        <v>44331</v>
+        <v>44523</v>
       </c>
       <c r="K36" t="s">
         <v>3</v>
@@ -3650,7 +3638,7 @@
         <v>5</v>
       </c>
       <c r="AN36" s="2">
-        <v>44331</v>
+        <v>44523</v>
       </c>
       <c r="AO36" s="4" t="s">
         <v>3</v>
@@ -3662,7 +3650,10 @@
         <v>11</v>
       </c>
       <c r="BF36" s="2">
-        <v>44536</v>
+        <v>44565</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>8</v>
       </c>
       <c r="BH36" t="s">
         <v>6</v>
@@ -3673,25 +3664,34 @@
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>3521105966864</v>
+        <v>3521104460341</v>
       </c>
       <c r="B37" s="2">
-        <v>44524</v>
+        <v>44503</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2">
-        <v>27011</v>
+        <v>26649</v>
       </c>
       <c r="E37" s="2">
-        <v>44352</v>
+        <v>44500</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>2102750487</v>
+      </c>
+      <c r="H37" s="2">
+        <v>44503</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2</v>
       </c>
       <c r="J37" s="2">
-        <v>44356</v>
+        <v>44503</v>
       </c>
       <c r="K37" t="s">
         <v>3</v>
@@ -3721,19 +3721,19 @@
         <v>5</v>
       </c>
       <c r="AN37" s="2">
-        <v>44356</v>
+        <v>44503</v>
       </c>
       <c r="AO37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BD37" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BF37" s="2">
-        <v>44538</v>
+        <v>44565</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>26</v>
       </c>
       <c r="BH37" t="s">
         <v>6</v>
@@ -3744,25 +3744,25 @@
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3521105166312</v>
+        <v>3521104361680</v>
       </c>
       <c r="B38" s="2">
-        <v>44512</v>
+        <v>44501</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D38" s="2">
-        <v>31318</v>
+        <v>26232</v>
       </c>
       <c r="E38" s="2">
-        <v>44345</v>
+        <v>44342</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J38" s="2">
-        <v>44351</v>
+        <v>44347</v>
       </c>
       <c r="K38" t="s">
         <v>3</v>
@@ -3792,7 +3792,7 @@
         <v>5</v>
       </c>
       <c r="AN38" s="2">
-        <v>44351</v>
+        <v>44347</v>
       </c>
       <c r="AO38" s="4" t="s">
         <v>3</v>
@@ -3804,7 +3804,7 @@
         <v>11</v>
       </c>
       <c r="BF38" s="2">
-        <v>44536</v>
+        <v>44529</v>
       </c>
       <c r="BH38" t="s">
         <v>6</v>
@@ -3814,6 +3814,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BI38">
+    <sortCondition ref="C2:C38"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>